--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Clec11a-Itga11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Clec11a</t>
+  </si>
+  <si>
+    <t>Itga11</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Clec11a</t>
-  </si>
-  <si>
-    <t>Itga11</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,46 +537,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H2">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I2">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J2">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N2">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O2">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P2">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q2">
-        <v>0.003033670086666666</v>
+        <v>0.003528720926666667</v>
       </c>
       <c r="R2">
-        <v>0.02730303078</v>
+        <v>0.03175848834</v>
       </c>
       <c r="S2">
-        <v>8.185235455863271E-05</v>
+        <v>0.0001067193652489132</v>
       </c>
       <c r="T2">
-        <v>8.185235455863271E-05</v>
+        <v>0.0001067193652489133</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H3">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I3">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J3">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>16.573342</v>
       </c>
       <c r="O3">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P3">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q3">
-        <v>0.1248027897073333</v>
+        <v>0.4477932860155556</v>
       </c>
       <c r="R3">
-        <v>1.123225107366</v>
+        <v>4.03013957414</v>
       </c>
       <c r="S3">
-        <v>0.003367341174615199</v>
+        <v>0.01354264512253376</v>
       </c>
       <c r="T3">
-        <v>0.003367341174615199</v>
+        <v>0.01354264512253376</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H4">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I4">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J4">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N4">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O4">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P4">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q4">
-        <v>0.009034321627999999</v>
+        <v>0.003004392368888889</v>
       </c>
       <c r="R4">
-        <v>0.08130889465199999</v>
+        <v>0.02703953132</v>
       </c>
       <c r="S4">
-        <v>0.0002437577178684929</v>
+        <v>9.08620583009307E-05</v>
       </c>
       <c r="T4">
-        <v>0.0002437577178684929</v>
+        <v>9.086205830093076E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -723,46 +723,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.022591</v>
+        <v>0.08105666666666667</v>
       </c>
       <c r="H5">
-        <v>0.067773</v>
+        <v>0.24317</v>
       </c>
       <c r="I5">
-        <v>0.003800378652809982</v>
+        <v>0.01403410315345726</v>
       </c>
       <c r="J5">
-        <v>0.003800378652809983</v>
+        <v>0.01403410315345727</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N5">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O5">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P5">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q5">
-        <v>0.003981550795</v>
+        <v>0.009717154256666668</v>
       </c>
       <c r="R5">
-        <v>0.03583395715500001</v>
+        <v>0.08745438831000001</v>
       </c>
       <c r="S5">
-        <v>0.0001074274057676579</v>
+        <v>0.0002938766073736612</v>
       </c>
       <c r="T5">
-        <v>0.0001074274057676579</v>
+        <v>0.0002938766073736613</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H6">
         <v>16.449865</v>
       </c>
       <c r="I6">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J6">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N6">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O6">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P6">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q6">
-        <v>0.7363325126555557</v>
+        <v>0.2387094743033333</v>
       </c>
       <c r="R6">
-        <v>6.626992613900001</v>
+        <v>2.14838526873</v>
       </c>
       <c r="S6">
-        <v>0.01986720644536383</v>
+        <v>0.007219308102275418</v>
       </c>
       <c r="T6">
-        <v>0.01986720644536383</v>
+        <v>0.007219308102275422</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H7">
         <v>16.449865</v>
       </c>
       <c r="I7">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J7">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>16.573342</v>
       </c>
       <c r="O7">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P7">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q7">
-        <v>30.29213761098112</v>
+        <v>30.29213761098111</v>
       </c>
       <c r="R7">
         <v>272.62923849883</v>
       </c>
       <c r="S7">
-        <v>0.8173211711354293</v>
+        <v>0.9161273348216834</v>
       </c>
       <c r="T7">
-        <v>0.8173211711354293</v>
+        <v>0.9161273348216838</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H8">
         <v>16.449865</v>
       </c>
       <c r="I8">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J8">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N8">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O8">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P8">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q8">
-        <v>2.192810870806666</v>
+        <v>0.2032399098377778</v>
       </c>
       <c r="R8">
-        <v>19.73529783726</v>
+        <v>1.82915918854</v>
       </c>
       <c r="S8">
-        <v>0.05916488205693707</v>
+        <v>0.006146599468159886</v>
       </c>
       <c r="T8">
-        <v>0.05916488205693708</v>
+        <v>0.006146599468159889</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.483288333333334</v>
+        <v>5.483288333333333</v>
       </c>
       <c r="H9">
         <v>16.449865</v>
       </c>
       <c r="I9">
-        <v>0.9224280434333154</v>
+        <v>0.9493732872905633</v>
       </c>
       <c r="J9">
-        <v>0.9224280434333155</v>
+        <v>0.9493732872905635</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N9">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O9">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P9">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q9">
-        <v>0.9664021523083336</v>
+        <v>0.6573420886883334</v>
       </c>
       <c r="R9">
-        <v>8.697619370775003</v>
+        <v>5.916078798195</v>
       </c>
       <c r="S9">
-        <v>0.02607478379558517</v>
+        <v>0.01988004489844442</v>
       </c>
       <c r="T9">
-        <v>0.02607478379558518</v>
+        <v>0.01988004489844444</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H10">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I10">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J10">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.1342866666666667</v>
+        <v>0.043534</v>
       </c>
       <c r="N10">
-        <v>0.40286</v>
+        <v>0.130602</v>
       </c>
       <c r="O10">
-        <v>0.02153794714590123</v>
+        <v>0.00760428821720775</v>
       </c>
       <c r="P10">
-        <v>0.02153794714590123</v>
+        <v>0.007604288217207752</v>
       </c>
       <c r="Q10">
-        <v>0.0444576153</v>
+        <v>0.009200809320666666</v>
       </c>
       <c r="R10">
-        <v>0.4001185377</v>
+        <v>0.082807283886</v>
       </c>
       <c r="S10">
-        <v>0.001199524136246901</v>
+        <v>0.0002782607496834177</v>
       </c>
       <c r="T10">
-        <v>0.001199524136246901</v>
+        <v>0.0002782607496834178</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H11">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I11">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J11">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>16.573342</v>
       </c>
       <c r="O11">
-        <v>0.8860541230872883</v>
+        <v>0.964981158713912</v>
       </c>
       <c r="P11">
-        <v>0.8860541230872881</v>
+        <v>0.9649811587139122</v>
       </c>
       <c r="Q11">
-        <v>1.82895115641</v>
+        <v>1.167579053522889</v>
       </c>
       <c r="R11">
-        <v>16.46056040769</v>
+        <v>10.508211481706</v>
       </c>
       <c r="S11">
-        <v>0.04934747492249041</v>
+        <v>0.03531117876969475</v>
       </c>
       <c r="T11">
-        <v>0.04934747492249041</v>
+        <v>0.03531117876969476</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.331065</v>
+        <v>0.2113476666666667</v>
       </c>
       <c r="H12">
-        <v>0.9931950000000001</v>
+        <v>0.634043</v>
       </c>
       <c r="I12">
-        <v>0.05569352214123043</v>
+        <v>0.03659260955597938</v>
       </c>
       <c r="J12">
-        <v>0.05569352214123045</v>
+        <v>0.03659260955597939</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.3999079999999999</v>
+        <v>0.03706533333333333</v>
       </c>
       <c r="N12">
-        <v>1.199724</v>
+        <v>0.111196</v>
       </c>
       <c r="O12">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453032</v>
       </c>
       <c r="P12">
-        <v>0.06414037656175643</v>
+        <v>0.006474375833453035</v>
       </c>
       <c r="Q12">
-        <v>0.13239554202</v>
+        <v>0.007833671714222223</v>
       </c>
       <c r="R12">
-        <v>1.19155987818</v>
+        <v>0.07050304542800001</v>
       </c>
       <c r="S12">
-        <v>0.003572203482189039</v>
+        <v>0.0002369143069922154</v>
       </c>
       <c r="T12">
-        <v>0.00357220348218904</v>
+        <v>0.0002369143069922155</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,309 +1204,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2113476666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.634043</v>
+      </c>
+      <c r="I13">
+        <v>0.03659260955597938</v>
+      </c>
+      <c r="J13">
+        <v>0.03659260955597939</v>
+      </c>
+      <c r="K13">
         <v>3</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.331065</v>
-      </c>
-      <c r="H13">
-        <v>0.9931950000000001</v>
-      </c>
-      <c r="I13">
-        <v>0.05569352214123043</v>
-      </c>
-      <c r="J13">
-        <v>0.05569352214123045</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.176245</v>
+        <v>0.119881</v>
       </c>
       <c r="N13">
-        <v>0.5287350000000001</v>
+        <v>0.359643</v>
       </c>
       <c r="O13">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="P13">
-        <v>0.02826755320505408</v>
+        <v>0.02094017723542708</v>
       </c>
       <c r="Q13">
-        <v>0.05834855092500001</v>
+        <v>0.02533656962766667</v>
       </c>
       <c r="R13">
-        <v>0.5251369583250001</v>
+        <v>0.228029126649</v>
       </c>
       <c r="S13">
-        <v>0.001574319600304088</v>
+        <v>0.0007662557296089907</v>
       </c>
       <c r="T13">
-        <v>0.001574319600304089</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H14">
-        <v>0.32239</v>
-      </c>
-      <c r="I14">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J14">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.1342866666666667</v>
-      </c>
-      <c r="N14">
-        <v>0.40286</v>
-      </c>
-      <c r="O14">
-        <v>0.02153794714590123</v>
-      </c>
-      <c r="P14">
-        <v>0.02153794714590123</v>
-      </c>
-      <c r="Q14">
-        <v>0.01443089282222222</v>
-      </c>
-      <c r="R14">
-        <v>0.1298780354</v>
-      </c>
-      <c r="S14">
-        <v>0.0003893642097318637</v>
-      </c>
-      <c r="T14">
-        <v>0.0003893642097318637</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H15">
-        <v>0.32239</v>
-      </c>
-      <c r="I15">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J15">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>5.524447333333334</v>
-      </c>
-      <c r="N15">
-        <v>16.573342</v>
-      </c>
-      <c r="O15">
-        <v>0.8860541230872883</v>
-      </c>
-      <c r="P15">
-        <v>0.8860541230872881</v>
-      </c>
-      <c r="Q15">
-        <v>0.5936755252644446</v>
-      </c>
-      <c r="R15">
-        <v>5.34307972738</v>
-      </c>
-      <c r="S15">
-        <v>0.01601813585475328</v>
-      </c>
-      <c r="T15">
-        <v>0.01601813585475328</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H16">
-        <v>0.32239</v>
-      </c>
-      <c r="I16">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J16">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.3999079999999999</v>
-      </c>
-      <c r="N16">
-        <v>1.199724</v>
-      </c>
-      <c r="O16">
-        <v>0.06414037656175643</v>
-      </c>
-      <c r="P16">
-        <v>0.06414037656175643</v>
-      </c>
-      <c r="Q16">
-        <v>0.04297544670666666</v>
-      </c>
-      <c r="R16">
-        <v>0.3867790203599999</v>
-      </c>
-      <c r="S16">
-        <v>0.001159533304761829</v>
-      </c>
-      <c r="T16">
-        <v>0.001159533304761829</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.1074633333333333</v>
-      </c>
-      <c r="H17">
-        <v>0.32239</v>
-      </c>
-      <c r="I17">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="J17">
-        <v>0.01807805577264412</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>0.176245</v>
-      </c>
-      <c r="N17">
-        <v>0.5287350000000001</v>
-      </c>
-      <c r="O17">
-        <v>0.02826755320505408</v>
-      </c>
-      <c r="P17">
-        <v>0.02826755320505408</v>
-      </c>
-      <c r="Q17">
-        <v>0.01893987518333334</v>
-      </c>
-      <c r="R17">
-        <v>0.17045887665</v>
-      </c>
-      <c r="S17">
-        <v>0.0005110224033971528</v>
-      </c>
-      <c r="T17">
-        <v>0.0005110224033971528</v>
+        <v>0.0007662557296089911</v>
       </c>
     </row>
   </sheetData>
